--- a/Pll/excel_list/bio-yeast.map.xlsx
+++ b/Pll/excel_list/bio-yeast.map.xlsx
@@ -435,22 +435,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4371</v>
+        <v>0.3832</v>
       </c>
       <c r="C2">
-        <v>0.4439</v>
+        <v>0.4033</v>
       </c>
       <c r="D2">
-        <v>0.453</v>
+        <v>0.366</v>
       </c>
       <c r="E2">
-        <v>0.4367</v>
+        <v>0.3811</v>
       </c>
       <c r="F2">
-        <v>0.4497</v>
+        <v>0.5289</v>
       </c>
       <c r="G2">
-        <v>0.4524</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -481,22 +481,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.2669</v>
+        <v>1.3651</v>
       </c>
       <c r="C4">
-        <v>1.3587</v>
+        <v>1.3867</v>
       </c>
       <c r="D4">
-        <v>1.2135</v>
+        <v>1.2595</v>
       </c>
       <c r="E4">
-        <v>1.2757</v>
+        <v>1.4908</v>
       </c>
       <c r="F4">
-        <v>1.2386</v>
+        <v>1.3513</v>
       </c>
       <c r="G4">
-        <v>1.3051</v>
+        <v>1.3549</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,22 +504,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.029</v>
+        <v>0.0319</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D5">
         <v>0.002</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="F5">
-        <v>0.603</v>
+        <v>0.6604</v>
       </c>
       <c r="G5">
-        <v>21.3679</v>
+        <v>22.0179</v>
       </c>
     </row>
   </sheetData>

--- a/Pll/excel_list/bio-yeast.map.xlsx
+++ b/Pll/excel_list/bio-yeast.map.xlsx
@@ -435,22 +435,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3832</v>
+        <v>0.2843</v>
       </c>
       <c r="C2">
-        <v>0.4033</v>
+        <v>0.2858</v>
       </c>
       <c r="D2">
-        <v>0.366</v>
+        <v>0.2871</v>
       </c>
       <c r="E2">
-        <v>0.3811</v>
+        <v>0.2979</v>
       </c>
       <c r="F2">
-        <v>0.5289</v>
+        <v>0.3152</v>
       </c>
       <c r="G2">
-        <v>0.375</v>
+        <v>0.2859</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -481,22 +481,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.3651</v>
+        <v>0.496</v>
       </c>
       <c r="C4">
-        <v>1.3867</v>
+        <v>0.4777</v>
       </c>
       <c r="D4">
-        <v>1.2595</v>
+        <v>0.4584</v>
       </c>
       <c r="E4">
-        <v>1.4908</v>
+        <v>0.4708</v>
       </c>
       <c r="F4">
-        <v>1.3513</v>
+        <v>0.4724</v>
       </c>
       <c r="G4">
-        <v>1.3549</v>
+        <v>0.4967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,22 +504,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0319</v>
+        <v>0.002</v>
       </c>
       <c r="C5">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="D5">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
       <c r="E5">
         <v>0.004</v>
       </c>
       <c r="F5">
-        <v>0.6604</v>
+        <v>0.4845</v>
       </c>
       <c r="G5">
-        <v>22.0179</v>
+        <v>3.0846</v>
       </c>
     </row>
   </sheetData>
